--- a/SyncLogs/SynchronizeLogNewEntries - tasks.xlsx
+++ b/SyncLogs/SynchronizeLogNewEntries - tasks.xlsx
@@ -2,13 +2,65 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheets>
-    <sheet sheetId="1" name="sheet1" state="visible" r:id="rId1"/>
+    <sheet sheetId="1" name="SynchronizeLogNewEntries" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+  <si>
+    <t>WorkbookName</t>
+  </si>
+  <si>
+    <t>Sets-DemoModels.xlsx</t>
+  </si>
+  <si>
+    <t>SheetName</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>SetRules</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>s-DemoModels</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>MessageCategory</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>The following sets did not generate any records: NRG_NUK ,NRG_PP ,NRG_SOLID ,PP_NUCLEAR</t>
+  </si>
+  <si>
+    <t>CellAddress</t>
+  </si>
+  <si>
+    <t>TagType</t>
+  </si>
+  <si>
+    <t>ProcessFilter</t>
+  </si>
+  <si>
+    <t>CommodityFilter</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25,12 +77,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -165,12 +223,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView zoomScale="100" topLeftCell="A1" workbookViewId="0" showGridLines="true" showRowColHeaders="true" view="normal"/>
   </sheetViews>
   <sheetFormatPr customHeight="false" defaultColWidth="9.28125" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/SyncLogs/SynchronizeLogNewEntries - tasks.xlsx
+++ b/SyncLogs/SynchronizeLogNewEntries - tasks.xlsx
@@ -2,65 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheets>
-    <sheet sheetId="1" name="SynchronizeLogNewEntries" state="visible" r:id="rId1"/>
+    <sheet sheetId="1" name="sheet1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
-  <si>
-    <t>WorkbookName</t>
-  </si>
-  <si>
-    <t>Sets-DemoModels.xlsx</t>
-  </si>
-  <si>
-    <t>SheetName</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>SetRules</t>
-  </si>
-  <si>
-    <t>Scenario</t>
-  </si>
-  <si>
-    <t>s-DemoModels</t>
-  </si>
-  <si>
-    <t>Attribute</t>
-  </si>
-  <si>
-    <t>MessageCategory</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>The following sets did not generate any records: NRG_NUK ,NRG_PP ,NRG_SOLID ,PP_NUCLEAR</t>
-  </si>
-  <si>
-    <t>CellAddress</t>
-  </si>
-  <si>
-    <t>TagType</t>
-  </si>
-  <si>
-    <t>ProcessFilter</t>
-  </si>
-  <si>
-    <t>CommodityFilter</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -77,18 +25,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -223,83 +165,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="100" topLeftCell="A1" workbookViewId="0" showGridLines="true" showRowColHeaders="true" view="normal"/>
   </sheetViews>
   <sheetFormatPr customHeight="false" defaultColWidth="9.28125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>